--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -70,232 +73,235 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>gift</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>son</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>also</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -662,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.425</v>
+        <v>0.525</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2635658914728682</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.8637770897832817</v>
@@ -931,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2323232323232323</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.217948717948718</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0972972972972973</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,21 +1079,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>169</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7056277056277056</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L12">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6514285714285715</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>798</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>798</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1229,15 +1259,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>61</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L16">
         <v>44</v>
@@ -1255,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>801</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>801</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1281,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>445</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6372881355932203</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L18">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1307,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1333,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.578125</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1359,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5571428571428572</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1385,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5555555555555556</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1411,47 +1441,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L23">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.515625</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1463,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.4850299401197605</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L25">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1489,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4807692307692308</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1515,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4786324786324787</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1541,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4761904761904762</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1567,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4586466165413534</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1593,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4578313253012048</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1619,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4262295081967213</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1645,12 +1675,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>0.4156626506024096</v>
@@ -1676,16 +1706,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.39</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1697,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3846153846153846</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1723,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3684210526315789</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1749,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1775,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3480392156862745</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1801,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>266</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3469387755102041</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1827,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3383458646616541</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L39">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1853,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1879,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3064516129032258</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1905,12 +1935,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>0.3061224489795918</v>
@@ -1936,16 +1966,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.2996108949416342</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L43">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1957,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>180</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.2678571428571428</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1983,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2661870503597122</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2009,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>102</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2561643835616438</v>
+        <v>0.2849315068493151</v>
       </c>
       <c r="L46">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M46">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2035,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2522522522522522</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2061,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2087,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2378902045209903</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L49">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="M49">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2113,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>708</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2345679012345679</v>
+        <v>0.2314316469321852</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2139,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>62</v>
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2296650717703349</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L51">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2165,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2037617554858934</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L52">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2191,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>254</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K53">
-        <v>0.198019801980198</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2217,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.1920529801324503</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2243,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.1879194630872483</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2269,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>121</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.1801324503311258</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="L56">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2295,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>619</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1714285714285714</v>
+        <v>0.1774834437086093</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2321,21 +2351,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>87</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.170076726342711</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L58">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2347,21 +2377,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>649</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1639344262295082</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2373,21 +2403,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1621621621621622</v>
+        <v>0.1624040920716112</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2399,21 +2429,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>93</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1574074074074074</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2425,21 +2455,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1212938005390836</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L62">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2451,21 +2481,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>326</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1168384879725086</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L63">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2477,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>257</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1153846153846154</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2503,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1143552311435523</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L65">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2529,47 +2559,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>364</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1104294478527607</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>145</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1097560975609756</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2581,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>146</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1090909090909091</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2607,21 +2637,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>147</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1050420168067227</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2633,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>213</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.096045197740113</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2659,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>160</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.09210526315789473</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L71">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2685,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>414</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.08487084870848709</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2711,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>248</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.08374384236453201</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2737,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.07777777777777778</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2763,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.07727272727272727</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2789,73 +2819,73 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>406</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.06682577565632458</v>
+        <v>0.06456241032998565</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>391</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.06456241032998565</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="L77">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>652</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.05503731343283582</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="L78">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2867,21 +2897,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1013</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.04918032786885246</v>
+        <v>0.05503731343283582</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2893,47 +2923,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>348</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.04120879120879121</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K81">
-        <v>0.03505535055350553</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2945,33 +2975,59 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>523</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K82">
-        <v>0.0259515570934256</v>
+        <v>0.03690036900369004</v>
       </c>
       <c r="L82">
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83">
+        <v>0.02508650519031142</v>
+      </c>
+      <c r="L83">
+        <v>29</v>
+      </c>
+      <c r="M83">
         <v>30</v>
       </c>
-      <c r="M82">
-        <v>31</v>
-      </c>
-      <c r="N82">
+      <c r="N83">
         <v>0.97</v>
       </c>
-      <c r="O82">
+      <c r="O83">
         <v>0.03000000000000003</v>
       </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1126</v>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
